--- a/Informes/TP Anual 1/3- Diseño/Pantallas.xlsx
+++ b/Informes/TP Anual 1/3- Diseño/Pantallas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8445" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8445"/>
   </bookViews>
   <sheets>
-    <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="4" r:id="rId2"/>
+    <sheet name="Login" sheetId="4" r:id="rId1"/>
+    <sheet name="Plantilla" sheetId="1" r:id="rId2"/>
     <sheet name="Control" sheetId="5" r:id="rId3"/>
     <sheet name="Historicos" sheetId="6" r:id="rId4"/>
     <sheet name="Simulacion" sheetId="7" r:id="rId5"/>
@@ -486,8 +486,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,22 +1562,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1586,15 +1571,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1622,46 +1598,179 @@
     <xf numFmtId="20" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,58 +1779,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1742,6 +1803,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1760,122 +1830,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1889,6 +1889,11 @@
       <color rgb="FFF26200"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2158,6 +2163,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2192,6 +2198,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2367,29 +2374,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="65"/>
+    <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="65"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="2:8" s="65" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:8" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:8" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" activeCellId="3" sqref="A1:A1048576 A1:XFD1 L1:N1048576 A26:XFD28"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="98"/>
+    <col min="1" max="1" width="11.42578125" style="65"/>
     <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="9" width="11.42578125" style="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.28515625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="11.42578125" style="98"/>
+    <col min="12" max="14" width="11.42578125" style="65"/>
     <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="98" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="18" thickTop="1" thickBot="1">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:11" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2406,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2418,7 +2567,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="2:11" ht="7.5" customHeight="1" thickBot="1">
+    <row r="4" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -2430,7 +2579,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickTop="1">
+    <row r="5" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="13" t="s">
         <v>1</v>
@@ -2446,13 +2595,13 @@
         <v>7</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="87" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="2:11" ht="7.5" customHeight="1" thickBot="1">
+    <row r="6" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="18"/>
       <c r="D6" s="15"/>
@@ -2460,11 +2609,11 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="17"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickTop="1">
+    <row r="7" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="13" t="s">
         <v>3</v>
@@ -2482,7 +2631,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="2:11" ht="7.5" customHeight="1" thickBot="1">
+    <row r="8" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
@@ -2494,7 +2643,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -2506,29 +2655,29 @@
       <c r="J9" s="15"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="55"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -2540,7 +2689,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="18"/>
       <c r="D12" s="15"/>
@@ -2552,7 +2701,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="18"/>
       <c r="D13" s="15"/>
@@ -2564,7 +2713,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="18"/>
       <c r="D14" s="15"/>
@@ -2576,7 +2725,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="13"/>
       <c r="D15" s="15"/>
@@ -2588,7 +2737,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="18"/>
       <c r="D16" s="15"/>
@@ -2600,7 +2749,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="13"/>
       <c r="D17" s="15"/>
@@ -2612,7 +2761,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1">
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
@@ -2624,7 +2773,7 @@
       <c r="J18" s="22"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="2:11" ht="6.75" customHeight="1" thickBot="1">
+    <row r="19" spans="2:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -2636,93 +2785,93 @@
       <c r="J19" s="15"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1">
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="38" t="s">
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
-      <c r="C22" s="44">
+      <c r="C22" s="36">
         <v>40675</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="37">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="48">
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="39">
         <v>2</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="52" t="s">
+      <c r="J22" s="41" t="s">
         <v>29</v>
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="52"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="41"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="2:11" ht="15.75" thickBot="1">
+    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="53"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1">
+    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -2734,9 +2883,9 @@
       <c r="J25" s="24"/>
       <c r="K25" s="25"/>
     </row>
-    <row r="26" spans="2:11" s="98" customFormat="1" ht="15.75" thickTop="1"/>
-    <row r="27" spans="2:11" s="98" customFormat="1"/>
-    <row r="28" spans="2:11" s="98" customFormat="1"/>
+    <row r="26" spans="2:11" s="65" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:11" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:11" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E24:G24"/>
@@ -2753,172 +2902,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" activeCellId="1" sqref="E9 G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="98"/>
-    <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="98"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" s="98" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:8" ht="18" thickTop="1" thickBot="1">
-      <c r="B2" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="8"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="8"/>
-      <c r="C5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="8"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="8"/>
-      <c r="C7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B8" s="8"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B9" s="8"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" thickTop="1">
-      <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="2:8" s="98" customFormat="1" ht="15.75" thickTop="1"/>
-    <row r="13" spans="2:8" s="98" customFormat="1"/>
-    <row r="14" spans="2:8" s="98" customFormat="1"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D5:G5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="98"/>
+    <col min="1" max="1" width="11.42578125" style="65"/>
     <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="9" width="11.42578125" style="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16" width="11.42578125" style="98"/>
+    <col min="12" max="16" width="11.42578125" style="65"/>
     <col min="17" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="98" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="18" thickTop="1" thickBot="1">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:11" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2935,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2947,7 +2954,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="2:11" ht="7.5" customHeight="1" thickBot="1">
+    <row r="4" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -2959,7 +2966,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickTop="1">
+    <row r="5" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="13" t="s">
         <v>1</v>
@@ -2975,13 +2982,13 @@
         <v>7</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="87" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="2:11" ht="7.5" customHeight="1" thickBot="1">
+    <row r="6" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="18"/>
       <c r="D6" s="15"/>
@@ -2989,11 +2996,11 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="17"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickTop="1">
+    <row r="7" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="13" t="s">
         <v>3</v>
@@ -3011,7 +3018,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="2:11" ht="7.5" customHeight="1" thickBot="1">
+    <row r="8" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
@@ -3023,7 +3030,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -3035,29 +3042,29 @@
       <c r="J9" s="15"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="55"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -3069,7 +3076,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="18"/>
       <c r="D12" s="15"/>
@@ -3081,7 +3088,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="18"/>
       <c r="D13" s="15"/>
@@ -3093,7 +3100,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="18"/>
       <c r="D14" s="15"/>
@@ -3105,7 +3112,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="18"/>
       <c r="D15" s="15"/>
@@ -3117,7 +3124,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="18"/>
       <c r="D16" s="15"/>
@@ -3129,7 +3136,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="18"/>
       <c r="D17" s="15"/>
@@ -3141,7 +3148,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="18"/>
       <c r="D18" s="15"/>
@@ -3153,7 +3160,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="18"/>
       <c r="D19" s="15"/>
@@ -3165,7 +3172,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="13"/>
       <c r="D20" s="15"/>
@@ -3177,7 +3184,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="18"/>
       <c r="D21" s="15"/>
@@ -3189,7 +3196,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15"/>
@@ -3201,7 +3208,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1">
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
@@ -3213,7 +3220,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="2:11" ht="7.5" customHeight="1" thickBot="1">
+    <row r="24" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -3225,93 +3232,93 @@
       <c r="J24" s="15"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1">
+    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="91"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="38" t="s">
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
-      <c r="C27" s="44">
+      <c r="C27" s="36">
         <v>40675</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="37">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="48">
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="39">
         <v>2</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="52" t="s">
+      <c r="J27" s="41" t="s">
         <v>29</v>
       </c>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="52"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1">
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="53"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1">
+    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -3323,13 +3330,13 @@
       <c r="J30" s="24"/>
       <c r="K30" s="25"/>
     </row>
-    <row r="31" spans="2:11" s="98" customFormat="1" ht="15.75" thickTop="1"/>
-    <row r="32" spans="2:11" s="98" customFormat="1"/>
-    <row r="33" s="98" customFormat="1"/>
-    <row r="34" s="98" customFormat="1"/>
-    <row r="35" s="98" customFormat="1"/>
-    <row r="36" s="98" customFormat="1"/>
-    <row r="37" s="98" customFormat="1"/>
+    <row r="31" spans="2:11" s="65" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:11" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E28:G28"/>
@@ -3347,7 +3354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:S32"/>
   <sheetViews>
@@ -3355,9 +3362,9 @@
       <selection activeCell="D12" sqref="D12:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="98"/>
+    <col min="1" max="1" width="11.42578125" style="65"/>
     <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="1" customWidth="1"/>
@@ -3366,13 +3373,13 @@
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.28515625" style="1" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" style="98"/>
+    <col min="13" max="19" width="11.42578125" style="65"/>
     <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="98" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:13" ht="18" thickTop="1" thickBot="1">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:13" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3390,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3403,7 +3410,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="2:13" ht="7.5" customHeight="1" thickBot="1">
+    <row r="4" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -3416,7 +3423,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75" thickTop="1">
+    <row r="5" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="13" t="s">
         <v>1</v>
@@ -3433,14 +3440,14 @@
         <v>7</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="87" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="99"/>
-    </row>
-    <row r="6" spans="2:13" ht="7.5" customHeight="1" thickBot="1">
+      <c r="M5" s="66"/>
+    </row>
+    <row r="6" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="18"/>
       <c r="D6" s="15"/>
@@ -3449,11 +3456,11 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="27"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="17"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickTop="1">
+    <row r="7" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="13" t="s">
         <v>3</v>
@@ -3472,7 +3479,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="7.5" customHeight="1" thickBot="1">
+    <row r="8" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
@@ -3485,7 +3492,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1">
+    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -3498,30 +3505,30 @@
       <c r="K9" s="15"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1">
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="54" t="s">
+      <c r="E10" s="98"/>
+      <c r="F10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1">
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -3534,198 +3541,198 @@
       <c r="K11" s="11"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="18"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
       <c r="K12" s="17"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1">
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="76">
+      <c r="D13" s="56"/>
+      <c r="E13" s="58">
         <v>1</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="17"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="77">
+      <c r="D14" s="56"/>
+      <c r="E14" s="59">
         <v>1</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
       <c r="K14" s="17"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="63">
         <v>1</v>
       </c>
-      <c r="F15" s="94" t="s">
+      <c r="F15" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="94" t="s">
+      <c r="G15" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="95" t="s">
+      <c r="H15" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="96"/>
-      <c r="J15" s="97"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="109"/>
       <c r="K15" s="17"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1">
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="77" t="s">
+      <c r="D16" s="56"/>
+      <c r="E16" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
       <c r="K16" s="17"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1">
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="73">
+      <c r="D17" s="56"/>
+      <c r="E17" s="55">
         <v>2</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
       <c r="K17" s="17"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1">
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="77">
+      <c r="D18" s="56"/>
+      <c r="E18" s="59">
         <v>2</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="83" t="s">
+      <c r="H18" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
       <c r="K18" s="17"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1">
+    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="73" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112"/>
       <c r="K19" s="17"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" thickBot="1">
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="78">
+      <c r="D20" s="57"/>
+      <c r="E20" s="60">
         <v>3</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="79" t="s">
+      <c r="G20" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="89" t="s">
+      <c r="H20" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="115"/>
       <c r="K20" s="17"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1">
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="18"/>
       <c r="D21" s="15"/>
@@ -3738,7 +3745,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="13"/>
       <c r="D22" s="16"/>
@@ -3747,13 +3754,13 @@
       <c r="G22" s="16"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="26" t="s">
         <v>55</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="12"/>
     </row>
-    <row r="23" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
@@ -3766,7 +3773,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="12"/>
     </row>
-    <row r="24" spans="2:12" ht="7.5" customHeight="1" thickBot="1">
+    <row r="24" spans="2:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -3779,98 +3786,98 @@
       <c r="K24" s="15"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" thickBot="1">
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91"/>
       <c r="L25" s="12"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="38" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="38" t="s">
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="12"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
-      <c r="C27" s="44">
+      <c r="C27" s="36">
         <v>40675</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="45">
+      <c r="D27" s="45"/>
+      <c r="E27" s="37">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="48">
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="39">
         <v>2</v>
       </c>
-      <c r="J27" s="48" t="s">
+      <c r="J27" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="52" t="s">
+      <c r="K27" s="41" t="s">
         <v>29</v>
       </c>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="52"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" thickBot="1">
+    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="53"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="42"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" thickBot="1">
+    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -3883,15 +3890,10 @@
       <c r="K30" s="24"/>
       <c r="L30" s="25"/>
     </row>
-    <row r="31" spans="2:12" s="98" customFormat="1" ht="15.75" thickTop="1"/>
-    <row r="32" spans="2:12" s="98" customFormat="1"/>
+    <row r="31" spans="2:12" s="65" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:12" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="F29:H29"/>
@@ -3904,6 +3906,11 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3912,7 +3919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:S30"/>
   <sheetViews>
@@ -3920,9 +3927,9 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="98"/>
+    <col min="1" max="1" width="11.42578125" style="65"/>
     <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="7" width="11.42578125" style="1"/>
@@ -3930,13 +3937,13 @@
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.28515625" style="1" customWidth="1"/>
-    <col min="12" max="18" width="11.42578125" style="98"/>
+    <col min="12" max="18" width="11.42578125" style="65"/>
     <col min="19" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="98" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:19" ht="18" thickTop="1" thickBot="1">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:19" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3953,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3965,7 +3972,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="2:19" ht="7.5" customHeight="1" thickBot="1">
+    <row r="4" spans="2:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -3977,7 +3984,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="2:19" ht="15.75" thickTop="1">
+    <row r="5" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="13" t="s">
         <v>1</v>
@@ -3993,14 +4000,14 @@
         <v>7</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="87" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="99"/>
-    </row>
-    <row r="6" spans="2:19" ht="7.5" customHeight="1" thickBot="1">
+      <c r="L5" s="66"/>
+    </row>
+    <row r="6" spans="2:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="18"/>
       <c r="D6" s="15"/>
@@ -4008,11 +4015,11 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="17"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="2:19" ht="15.75" thickTop="1">
+    <row r="7" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="13" t="s">
         <v>3</v>
@@ -4030,7 +4037,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="2:19" ht="7.5" customHeight="1" thickBot="1">
+    <row r="8" spans="2:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
@@ -4042,7 +4049,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="2:19" ht="15" customHeight="1">
+    <row r="9" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -4054,29 +4061,29 @@
       <c r="J9" s="15"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="2:19" ht="15.75" thickBot="1">
+    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="55"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="2:19" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="11" spans="2:19" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -4089,10 +4096,10 @@
       <c r="K11" s="12"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="2:19" s="98" customFormat="1">
+    <row r="12" spans="2:19" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="10"/>
@@ -4104,10 +4111,10 @@
       <c r="K12" s="12"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="2:19" s="98" customFormat="1">
+    <row r="13" spans="2:19" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="101"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -4117,15 +4124,15 @@
       <c r="K13" s="12"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="2:19" s="98" customFormat="1">
+    <row r="14" spans="2:19" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="101" t="s">
+      <c r="D14" s="68" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="102" t="s">
+      <c r="G14" s="69" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="19"/>
@@ -4134,28 +4141,28 @@
       <c r="K14" s="12"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="2:19" s="98" customFormat="1">
+    <row r="15" spans="2:19" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="101"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="102"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="15"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="12"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="2:19" s="98" customFormat="1">
+    <row r="16" spans="2:19" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="68" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="102" t="s">
+      <c r="G16" s="69" t="s">
         <v>60</v>
       </c>
       <c r="H16" s="19"/>
@@ -4164,20 +4171,20 @@
       <c r="K16" s="12"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19" s="98" customFormat="1">
+    <row r="17" spans="2:19" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="101"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="102"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="15"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="12"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:19" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="18" spans="2:19" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="18"/>
       <c r="D18" s="20"/>
@@ -4190,7 +4197,7 @@
       <c r="K18" s="12"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:19" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="19" spans="2:19" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="18"/>
       <c r="D19" s="15"/>
@@ -4203,7 +4210,7 @@
       <c r="K19" s="12"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:19" s="98" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="2:19" s="65" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="13"/>
       <c r="D20" s="15"/>
@@ -4211,14 +4218,14 @@
       <c r="F20" s="16"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="26" t="s">
         <v>61</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="2:19" s="98" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="2:19" s="65" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
@@ -4231,7 +4238,7 @@
       <c r="K21" s="12"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="2:19" s="98" customFormat="1" ht="7.5" customHeight="1" thickBot="1">
+    <row r="22" spans="2:19" s="65" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -4244,98 +4251,98 @@
       <c r="K22" s="12"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="2:19" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="23" spans="2:19" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="91"/>
       <c r="K23" s="12"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="2:19" s="98" customFormat="1">
+    <row r="24" spans="2:19" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="38" t="s">
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="12"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="2:19" s="98" customFormat="1">
+    <row r="25" spans="2:19" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
-      <c r="C25" s="44">
+      <c r="C25" s="36">
         <v>40675</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="37">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="48">
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="39">
         <v>2</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="52" t="s">
+      <c r="J25" s="41" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="12"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="2:19" s="98" customFormat="1">
+    <row r="26" spans="2:19" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="52"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="41"/>
       <c r="K26" s="12"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="2:19" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="27" spans="2:19" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="53"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="12"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="2:19" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="28" spans="2:19" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -4348,17 +4355,17 @@
       <c r="K28" s="25"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="2:19" s="98" customFormat="1" ht="15.75" thickTop="1"/>
-    <row r="30" spans="2:19" s="98" customFormat="1"/>
+    <row r="29" spans="2:19" s="65" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:19" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4366,17 +4373,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="98"/>
+    <col min="1" max="1" width="11.42578125" style="65"/>
     <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
@@ -4386,18 +4393,18 @@
     <col min="12" max="15" width="8.140625" style="1" customWidth="1"/>
     <col min="16" max="17" width="4.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="3.28515625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="11.42578125" style="98"/>
-    <col min="21" max="21" width="17.28515625" style="98" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" style="98" customWidth="1"/>
-    <col min="23" max="24" width="11.42578125" style="98"/>
-    <col min="25" max="27" width="5" style="98" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="98"/>
+    <col min="19" max="20" width="11.42578125" style="65"/>
+    <col min="21" max="21" width="17.28515625" style="65" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="65" customWidth="1"/>
+    <col min="23" max="24" width="11.42578125" style="65"/>
+    <col min="25" max="27" width="5" style="65" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" style="65"/>
     <col min="29" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:29" ht="18" thickTop="1" thickBot="1">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4421,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -4440,7 +4447,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="2:29" ht="7.5" customHeight="1" thickBot="1">
+    <row r="4" spans="2:29" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -4459,7 +4466,7 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="2:29" ht="15.75" thickTop="1">
+    <row r="5" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="13" t="s">
         <v>1</v>
@@ -4476,7 +4483,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="87" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="15"/>
@@ -4487,10 +4494,10 @@
       <c r="P5" s="15"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-    </row>
-    <row r="6" spans="2:29" ht="7.5" customHeight="1" thickBot="1">
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+    </row>
+    <row r="6" spans="2:29" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="18"/>
       <c r="D6" s="15"/>
@@ -4499,7 +4506,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="27"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -4509,7 +4516,7 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:29" ht="17.25" thickTop="1">
+    <row r="7" spans="2:29" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="13" t="s">
         <v>3</v>
@@ -4533,20 +4540,20 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="12"/>
-      <c r="T7" s="130" t="s">
+      <c r="T7" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="7.5" customHeight="1" thickBot="1">
+    <row r="8" spans="2:29" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
@@ -4564,16 +4571,16 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="12"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="128"/>
-      <c r="Z8" s="128"/>
-      <c r="AA8" s="129"/>
-    </row>
-    <row r="9" spans="2:29" ht="15" customHeight="1">
+      <c r="T8" s="80"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="82"/>
+    </row>
+    <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -4600,25 +4607,25 @@
       <c r="Z9" s="15"/>
       <c r="AA9" s="12"/>
     </row>
-    <row r="10" spans="2:29" ht="15.75" thickBot="1">
+    <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="54" t="s">
+      <c r="D10" s="130"/>
+      <c r="E10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="103"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -4632,7 +4639,7 @@
       <c r="U10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="V10" s="131">
+      <c r="V10" s="84">
         <v>1</v>
       </c>
       <c r="W10" s="15"/>
@@ -4641,7 +4648,7 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="12"/>
     </row>
-    <row r="11" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="11" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -4669,13 +4676,13 @@
       <c r="AA11" s="12"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="2:29" s="98" customFormat="1">
+    <row r="12" spans="2:29" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4693,7 +4700,7 @@
       <c r="U12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="V12" s="131" t="s">
+      <c r="V12" s="84" t="s">
         <v>39</v>
       </c>
       <c r="W12" s="15"/>
@@ -4703,11 +4710,11 @@
       <c r="AA12" s="12"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="13" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -4731,35 +4738,35 @@
       <c r="AA13" s="12"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="14" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="101"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="65" t="s">
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="107" t="s">
+      <c r="L14" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M14" s="107" t="s">
+      <c r="M14" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="107" t="s">
+      <c r="N14" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="108" t="s">
+      <c r="O14" s="74" t="s">
         <v>72</v>
       </c>
       <c r="P14" s="17"/>
@@ -4769,45 +4776,45 @@
       <c r="U14" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="V14" s="29" t="s">
+      <c r="V14" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="W14" s="31"/>
-      <c r="X14" s="30"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="96"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="12"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="15" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="76">
+      <c r="D15" s="68"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="58">
         <v>1</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="81"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="66" t="s">
+      <c r="I15" s="102"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L15" s="48">
         <v>10</v>
       </c>
-      <c r="M15" s="66">
+      <c r="M15" s="48">
         <v>25</v>
       </c>
-      <c r="N15" s="66">
+      <c r="N15" s="48">
         <v>55</v>
       </c>
-      <c r="O15" s="67">
+      <c r="O15" s="49">
         <v>70</v>
       </c>
       <c r="P15" s="17"/>
@@ -4823,35 +4830,35 @@
       <c r="AA15" s="12"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="77">
+      <c r="D16" s="68"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="59">
         <v>1</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="68" t="s">
+      <c r="I16" s="105"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="68">
+      <c r="L16" s="50">
         <v>-4</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="50">
         <v>-2</v>
       </c>
-      <c r="N16" s="68">
+      <c r="N16" s="50">
         <v>-0.05</v>
       </c>
-      <c r="O16" s="69">
+      <c r="O16" s="51">
         <v>0</v>
       </c>
       <c r="P16" s="17"/>
@@ -4871,37 +4878,37 @@
       <c r="AA16" s="12"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="17" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="106" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="63">
         <v>1</v>
       </c>
-      <c r="G17" s="94" t="s">
+      <c r="G17" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="95" t="s">
+      <c r="H17" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="96"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="94" t="s">
+      <c r="I17" s="108"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="94">
+      <c r="L17" s="64">
         <v>3</v>
       </c>
-      <c r="M17" s="94">
+      <c r="M17" s="64">
         <v>5</v>
       </c>
-      <c r="N17" s="94">
+      <c r="N17" s="64">
         <v>12</v>
       </c>
-      <c r="O17" s="109">
+      <c r="O17" s="75">
         <v>15</v>
       </c>
       <c r="P17" s="17"/>
@@ -4917,27 +4924,27 @@
       <c r="AA17" s="12"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="18" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="77" t="s">
+      <c r="D18" s="68"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="83" t="s">
+      <c r="H18" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="69"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="12"/>
@@ -4955,35 +4962,35 @@
       <c r="AA18" s="12"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="19" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="73">
+      <c r="D19" s="68"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="55">
         <v>2</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="70" t="s">
+      <c r="I19" s="111"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="70">
+      <c r="L19" s="52">
         <v>3</v>
       </c>
-      <c r="M19" s="70">
+      <c r="M19" s="52">
         <v>5</v>
       </c>
-      <c r="N19" s="70">
+      <c r="N19" s="52">
         <v>12</v>
       </c>
-      <c r="O19" s="71">
+      <c r="O19" s="53">
         <v>15</v>
       </c>
       <c r="P19" s="17"/>
@@ -4999,35 +5006,35 @@
       <c r="AA19" s="12"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="77">
+      <c r="D20" s="68"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="59">
         <v>2</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="83" t="s">
+      <c r="H20" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="84"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="68" t="s">
+      <c r="I20" s="105"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="68">
+      <c r="L20" s="50">
         <v>0</v>
       </c>
-      <c r="M20" s="68">
+      <c r="M20" s="50">
         <v>20</v>
       </c>
-      <c r="N20" s="68">
+      <c r="N20" s="50">
         <v>40</v>
       </c>
-      <c r="O20" s="69">
+      <c r="O20" s="51">
         <v>80</v>
       </c>
       <c r="P20" s="17"/>
@@ -5047,27 +5054,27 @@
       <c r="AA20" s="12"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="21" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="114" t="s">
+      <c r="D21" s="68"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="115" t="s">
+      <c r="G21" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="116" t="s">
+      <c r="H21" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="119"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="78"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="12"/>
@@ -5081,10 +5088,10 @@
       <c r="AA21" s="12"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="22" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="101"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="16"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -5113,10 +5120,10 @@
       <c r="AA22" s="12"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="2:29" s="98" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="2:29" s="65" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="101"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="16"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -5126,10 +5133,10 @@
       <c r="K23" s="16"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="124" t="s">
+      <c r="N23" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="125"/>
+      <c r="O23" s="121"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="12"/>
@@ -5143,7 +5150,7 @@
       <c r="AA23" s="12"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="2:29" s="98" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="2:29" s="65" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="18"/>
       <c r="D24" s="20"/>
@@ -5175,7 +5182,7 @@
       <c r="AA24" s="12"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="2:29" s="98" customFormat="1">
+    <row r="25" spans="2:29" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="18"/>
       <c r="D25" s="15"/>
@@ -5203,7 +5210,7 @@
       <c r="AA25" s="12"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="26" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="13"/>
       <c r="D26" s="16"/>
@@ -5231,7 +5238,7 @@
       <c r="AA26" s="12"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="2:29" s="98" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="2:29" s="65" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
@@ -5250,20 +5257,20 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="12"/>
       <c r="T27" s="8"/>
-      <c r="U27" s="28" t="s">
+      <c r="U27" s="26" t="s">
         <v>25</v>
       </c>
       <c r="V27" s="15"/>
-      <c r="W27" s="124" t="s">
+      <c r="W27" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="X27" s="125"/>
+      <c r="X27" s="121"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="12"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="2:29" s="98" customFormat="1" ht="7.5" customHeight="1" thickBot="1">
+    <row r="28" spans="2:29" s="65" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -5291,25 +5298,25 @@
       <c r="AA28" s="12"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="29" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="36"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="91"/>
       <c r="R29" s="12"/>
       <c r="T29" s="23"/>
       <c r="U29" s="24"/>
@@ -5321,111 +5328,111 @@
       <c r="AA29" s="25"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="2:29" s="98" customFormat="1">
+    <row r="30" spans="2:29" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="123"/>
-      <c r="E30" s="38" t="s">
+      <c r="D30" s="119"/>
+      <c r="E30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="38" t="s">
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="38" t="s">
+      <c r="K30" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="47"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="38"/>
       <c r="R30" s="12"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="2:29" s="98" customFormat="1">
+    <row r="31" spans="2:29" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
-      <c r="C31" s="120">
+      <c r="C31" s="116">
         <v>40675</v>
       </c>
-      <c r="D31" s="121"/>
-      <c r="E31" s="45">
+      <c r="D31" s="117"/>
+      <c r="E31" s="37">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="48">
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="39">
         <v>2</v>
       </c>
-      <c r="J31" s="48" t="s">
+      <c r="J31" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="48" t="s">
+      <c r="K31" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="52"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="41"/>
       <c r="R31" s="12"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="2:29" s="98" customFormat="1">
+    <row r="32" spans="2:29" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="52"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="41"/>
       <c r="R32" s="12"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="53"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="42"/>
       <c r="R33" s="12"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="2:29" s="98" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="2:29" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="23"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -5445,12 +5452,20 @@
       <c r="R34" s="25"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="2:29" s="98" customFormat="1" ht="15.75" thickTop="1"/>
-    <row r="36" spans="2:29" s="98" customFormat="1"/>
-    <row r="39" spans="2:29" ht="15" customHeight="1"/>
-    <row r="40" spans="2:29" ht="15" customHeight="1"/>
+    <row r="35" spans="2:29" s="65" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:29" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="N23:O23"/>
@@ -5464,14 +5479,6 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
